--- a/EL - Electrical/Autre/Cahier des charges SEISM.xlsx
+++ b/EL - Electrical/Autre/Cahier des charges SEISM.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\EPSA\SEISM Optimus\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620"/>
   </bookViews>
@@ -281,7 +276,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -814,45 +809,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -887,6 +843,45 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -949,7 +944,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -984,7 +979,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1161,7 +1156,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1171,7 +1166,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E91"/>
   <sheetViews>
-    <sheetView tabSelected="1" showWhiteSpace="0" view="pageLayout" topLeftCell="A27" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView tabSelected="1" showWhiteSpace="0" view="pageLayout" topLeftCell="A22" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
@@ -1185,27 +1180,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="38.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="48" t="s">
+      <c r="B1" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="47" t="s">
+      <c r="C1" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="49" t="s">
+      <c r="D1" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="47" t="s">
+      <c r="E1" s="34" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A2" s="34" t="s">
+      <c r="A2" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="38" t="s">
+      <c r="B2" s="48" t="s">
         <v>6</v>
       </c>
       <c r="C2" s="10" t="s">
@@ -1214,65 +1209,65 @@
       <c r="D2" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="E2" s="50">
+      <c r="E2" s="37">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="35"/>
-      <c r="B3" s="39"/>
+      <c r="A3" s="44"/>
+      <c r="B3" s="49"/>
       <c r="C3" s="11" t="s">
         <v>7</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="51" t="s">
+      <c r="E3" s="38" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="35"/>
-      <c r="B4" s="39"/>
+      <c r="A4" s="44"/>
+      <c r="B4" s="49"/>
       <c r="C4" s="11" t="s">
         <v>9</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="52">
+      <c r="E4" s="39">
         <v>0.1</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="35"/>
-      <c r="B5" s="39"/>
+      <c r="A5" s="44"/>
+      <c r="B5" s="49"/>
       <c r="C5" s="11" t="s">
         <v>11</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="53">
+      <c r="E5" s="40">
         <v>0.2</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="35"/>
-      <c r="B6" s="40"/>
+      <c r="A6" s="44"/>
+      <c r="B6" s="50"/>
       <c r="C6" s="12" t="s">
         <v>40</v>
       </c>
       <c r="D6" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="E6" s="54">
+      <c r="E6" s="41">
         <v>0.2</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A7" s="35"/>
-      <c r="B7" s="38" t="s">
+      <c r="A7" s="44"/>
+      <c r="B7" s="48" t="s">
         <v>14</v>
       </c>
       <c r="C7" s="10" t="s">
@@ -1286,8 +1281,8 @@
       </c>
     </row>
     <row r="8" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="35"/>
-      <c r="B8" s="39"/>
+      <c r="A8" s="44"/>
+      <c r="B8" s="49"/>
       <c r="C8" s="11" t="s">
         <v>22</v>
       </c>
@@ -1299,8 +1294,8 @@
       </c>
     </row>
     <row r="9" spans="1:5" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="35"/>
-      <c r="B9" s="40"/>
+      <c r="A9" s="44"/>
+      <c r="B9" s="50"/>
       <c r="C9" s="12" t="s">
         <v>18</v>
       </c>
@@ -1312,8 +1307,8 @@
       </c>
     </row>
     <row r="10" spans="1:5" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="35"/>
-      <c r="B10" s="38" t="s">
+      <c r="A10" s="44"/>
+      <c r="B10" s="48" t="s">
         <v>20</v>
       </c>
       <c r="C10" s="10" t="s">
@@ -1327,8 +1322,8 @@
       </c>
     </row>
     <row r="11" spans="1:5" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="36"/>
-      <c r="B11" s="40"/>
+      <c r="A11" s="45"/>
+      <c r="B11" s="50"/>
       <c r="C11" s="15" t="s">
         <v>26</v>
       </c>
@@ -1340,10 +1335,10 @@
       </c>
     </row>
     <row r="12" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="34" t="s">
+      <c r="A12" s="43" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="38" t="s">
+      <c r="B12" s="48" t="s">
         <v>27</v>
       </c>
       <c r="C12" s="10" t="s">
@@ -1357,8 +1352,8 @@
       </c>
     </row>
     <row r="13" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A13" s="35"/>
-      <c r="B13" s="39"/>
+      <c r="A13" s="44"/>
+      <c r="B13" s="49"/>
       <c r="C13" s="11" t="s">
         <v>32</v>
       </c>
@@ -1370,8 +1365,8 @@
       </c>
     </row>
     <row r="14" spans="1:5" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="36"/>
-      <c r="B14" s="40"/>
+      <c r="A14" s="45"/>
+      <c r="B14" s="50"/>
       <c r="C14" s="12" t="s">
         <v>34</v>
       </c>
@@ -1383,10 +1378,10 @@
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="34" t="s">
+      <c r="A15" s="43" t="s">
         <v>28</v>
       </c>
-      <c r="B15" s="41" t="s">
+      <c r="B15" s="46" t="s">
         <v>36</v>
       </c>
       <c r="C15" s="10" t="s">
@@ -1400,8 +1395,8 @@
       </c>
     </row>
     <row r="16" spans="1:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="35"/>
-      <c r="B16" s="42"/>
+      <c r="A16" s="44"/>
+      <c r="B16" s="55"/>
       <c r="C16" s="12" t="s">
         <v>39</v>
       </c>
@@ -1413,8 +1408,8 @@
       </c>
     </row>
     <row r="17" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A17" s="35"/>
-      <c r="B17" s="41" t="s">
+      <c r="A17" s="44"/>
+      <c r="B17" s="46" t="s">
         <v>44</v>
       </c>
       <c r="C17" s="10" t="s">
@@ -1428,8 +1423,8 @@
       </c>
     </row>
     <row r="18" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A18" s="35"/>
-      <c r="B18" s="43"/>
+      <c r="A18" s="44"/>
+      <c r="B18" s="47"/>
       <c r="C18" s="11" t="s">
         <v>45</v>
       </c>
@@ -1441,8 +1436,8 @@
       </c>
     </row>
     <row r="19" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A19" s="35"/>
-      <c r="B19" s="43"/>
+      <c r="A19" s="44"/>
+      <c r="B19" s="47"/>
       <c r="C19" s="20" t="s">
         <v>47</v>
       </c>
@@ -1454,21 +1449,21 @@
       </c>
     </row>
     <row r="20" spans="1:5" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="35"/>
-      <c r="B20" s="43"/>
+      <c r="A20" s="44"/>
+      <c r="B20" s="47"/>
       <c r="C20" s="21" t="s">
         <v>49</v>
       </c>
       <c r="D20" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="E20" s="55" t="s">
+      <c r="E20" s="42" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="35"/>
-      <c r="B21" s="31" t="s">
+      <c r="A21" s="44"/>
+      <c r="B21" s="51" t="s">
         <v>52</v>
       </c>
       <c r="C21" s="29" t="s">
@@ -1482,8 +1477,8 @@
       </c>
     </row>
     <row r="22" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="35"/>
-      <c r="B22" s="32"/>
+      <c r="A22" s="44"/>
+      <c r="B22" s="52"/>
       <c r="C22" s="7" t="s">
         <v>55</v>
       </c>
@@ -1495,8 +1490,8 @@
       </c>
     </row>
     <row r="23" spans="1:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="36"/>
-      <c r="B23" s="33"/>
+      <c r="A23" s="45"/>
+      <c r="B23" s="53"/>
       <c r="C23" s="30" t="s">
         <v>57</v>
       </c>
@@ -1508,10 +1503,10 @@
       </c>
     </row>
     <row r="24" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="34" t="s">
+      <c r="A24" s="43" t="s">
         <v>59</v>
       </c>
-      <c r="B24" s="31" t="s">
+      <c r="B24" s="51" t="s">
         <v>71</v>
       </c>
       <c r="C24" s="23" t="s">
@@ -1525,8 +1520,8 @@
       </c>
     </row>
     <row r="25" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A25" s="35"/>
-      <c r="B25" s="32"/>
+      <c r="A25" s="44"/>
+      <c r="B25" s="52"/>
       <c r="C25" s="20" t="s">
         <v>64</v>
       </c>
@@ -1538,8 +1533,8 @@
       </c>
     </row>
     <row r="26" spans="1:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="35"/>
-      <c r="B26" s="33"/>
+      <c r="A26" s="44"/>
+      <c r="B26" s="53"/>
       <c r="C26" s="21" t="s">
         <v>66</v>
       </c>
@@ -1551,11 +1546,11 @@
       </c>
     </row>
     <row r="27" spans="1:5" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="35"/>
-      <c r="B27" s="31" t="s">
+      <c r="A27" s="44"/>
+      <c r="B27" s="51" t="s">
         <v>72</v>
       </c>
-      <c r="C27" s="44" t="s">
+      <c r="C27" s="31" t="s">
         <v>69</v>
       </c>
       <c r="D27" s="14" t="s">
@@ -1566,8 +1561,8 @@
       </c>
     </row>
     <row r="28" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A28" s="35"/>
-      <c r="B28" s="32"/>
+      <c r="A28" s="44"/>
+      <c r="B28" s="52"/>
       <c r="C28" s="11" t="s">
         <v>74</v>
       </c>
@@ -1579,9 +1574,9 @@
       </c>
     </row>
     <row r="29" spans="1:5" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="36"/>
-      <c r="B29" s="33"/>
-      <c r="C29" s="45" t="s">
+      <c r="A29" s="45"/>
+      <c r="B29" s="53"/>
+      <c r="C29" s="32" t="s">
         <v>70</v>
       </c>
       <c r="D29" s="13" t="s">
@@ -1591,11 +1586,11 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="34" t="s">
+    <row r="30" spans="1:5" ht="82.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="43" t="s">
         <v>76</v>
       </c>
-      <c r="B30" s="31" t="s">
+      <c r="B30" s="51" t="s">
         <v>78</v>
       </c>
       <c r="C30" s="1" t="s">
@@ -1609,8 +1604,8 @@
       </c>
     </row>
     <row r="31" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A31" s="35"/>
-      <c r="B31" s="32"/>
+      <c r="A31" s="44"/>
+      <c r="B31" s="52"/>
       <c r="C31" s="28" t="s">
         <v>79</v>
       </c>
@@ -1622,8 +1617,8 @@
       </c>
     </row>
     <row r="32" spans="1:5" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="36"/>
-      <c r="B32" s="33"/>
+      <c r="A32" s="45"/>
+      <c r="B32" s="53"/>
       <c r="C32" s="2" t="s">
         <v>80</v>
       </c>
@@ -1635,14 +1630,14 @@
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="37"/>
+      <c r="A33" s="54"/>
       <c r="B33" s="8"/>
       <c r="C33" s="4"/>
       <c r="D33" s="4"/>
       <c r="E33" s="3"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="37"/>
+      <c r="A34" s="54"/>
       <c r="B34" s="8"/>
       <c r="C34" s="4"/>
       <c r="D34" s="4"/>
@@ -2049,11 +2044,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="A2:A11"/>
-    <mergeCell ref="B17:B20"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="B2:B6"/>
     <mergeCell ref="A30:A32"/>
     <mergeCell ref="B30:B32"/>
     <mergeCell ref="A33:A34"/>
@@ -2065,6 +2055,11 @@
     <mergeCell ref="B24:B26"/>
     <mergeCell ref="B27:B29"/>
     <mergeCell ref="A24:A29"/>
+    <mergeCell ref="A2:A11"/>
+    <mergeCell ref="B17:B20"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="B2:B6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
